--- a/복소해석학 번역.xlsx
+++ b/복소해석학 번역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\salt_data\Git_2022\CA_Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D33D72-17F3-4730-85F8-940ACD04E722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936A6F25-B1F1-4330-B79B-742734933FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="25770" windowHeight="12825" xr2:uid="{26DAE380-11AC-4183-BDD2-C5A98C2CC6E1}"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="25770" windowHeight="12825" xr2:uid="{26DAE380-11AC-4183-BDD2-C5A98C2CC6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDDC253-06A9-406E-9F5C-C0A4C8A890E7}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/복소해석학 번역.xlsx
+++ b/복소해석학 번역.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\salt_data\Git_2022\CA_Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936A6F25-B1F1-4330-B79B-742734933FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4E1DAB-4BA2-496E-9153-4BF0A55E62BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="25770" windowHeight="12825" xr2:uid="{26DAE380-11AC-4183-BDD2-C5A98C2CC6E1}"/>
+    <workbookView xWindow="210" yWindow="2070" windowWidth="21165" windowHeight="13125" xr2:uid="{26DAE380-11AC-4183-BDD2-C5A98C2CC6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="274">
   <si>
     <t>D-contractible curve</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -960,10 +960,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>급수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이지수에 x라고 적혀있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1060,10 +1056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단순연결영역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매끄러운 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,6 +1117,18 @@
   </si>
   <si>
     <t>preface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제곱급수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순연결 영역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1491,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDDC253-06A9-406E-9F5C-C0A4C8A890E7}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2762,7 +2766,7 @@
         <v>4.2</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="D82">
         <v>128</v>
@@ -2773,16 +2777,16 @@
         <v>201</v>
       </c>
       <c r="B83" t="s">
+        <v>270</v>
+      </c>
+      <c r="C83" t="s">
         <v>272</v>
-      </c>
-      <c r="C83" t="s">
-        <v>5</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2793,7 +2797,7 @@
         <v>3.5</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D84">
         <v>105</v>
@@ -2810,7 +2814,7 @@
         <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85">
         <v>37</v>
@@ -2824,7 +2828,7 @@
         <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86">
         <v>38</v>
@@ -2835,16 +2839,16 @@
         <v>205</v>
       </c>
       <c r="B87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87">
         <v>131</v>
       </c>
       <c r="E87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2852,16 +2856,16 @@
         <v>206</v>
       </c>
       <c r="B88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D88">
         <v>136</v>
       </c>
       <c r="E88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2872,7 +2876,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D89">
         <v>13</v>
@@ -2886,7 +2890,7 @@
         <v>4.8</v>
       </c>
       <c r="C90" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D90">
         <v>165</v>
@@ -2903,13 +2907,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D91">
         <v>180</v>
       </c>
       <c r="E91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2920,13 +2924,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C92" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D92">
         <v>127</v>
       </c>
       <c r="E92" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2937,13 +2941,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D93">
         <v>127</v>
       </c>
       <c r="E93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2954,13 +2958,13 @@
         <v>5.4</v>
       </c>
       <c r="C94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D94">
         <v>202</v>
       </c>
       <c r="E94" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2968,10 +2972,10 @@
         <v>210</v>
       </c>
       <c r="C95" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" t="s">
         <v>251</v>
-      </c>
-      <c r="E95" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2982,13 +2986,13 @@
         <v>3.8</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D96">
         <v>120</v>
       </c>
       <c r="E96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2999,7 +3003,7 @@
         <v>1.2</v>
       </c>
       <c r="C97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D97">
         <v>20</v>
@@ -3013,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="D98">
         <v>99</v>
@@ -3027,7 +3031,7 @@
         <v>3.1</v>
       </c>
       <c r="C99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D99">
         <v>75</v>
@@ -3041,7 +3045,7 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D100">
         <v>28</v>
@@ -3058,13 +3062,13 @@
         <v>4.3</v>
       </c>
       <c r="C101" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D101">
         <v>140</v>
       </c>
       <c r="E101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3072,10 +3076,10 @@
         <v>219</v>
       </c>
       <c r="B102" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C102" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D102">
         <v>25</v>
@@ -3086,10 +3090,10 @@
         <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C103" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D103">
         <v>34</v>
@@ -3103,13 +3107,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D104">
         <v>102</v>
       </c>
       <c r="E104" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3120,7 +3124,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C105" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D105">
         <v>144</v>
@@ -3134,7 +3138,7 @@
         <v>4.5</v>
       </c>
       <c r="C106" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D106">
         <v>151</v>
@@ -3151,13 +3155,13 @@
         <v>3.8</v>
       </c>
       <c r="C107" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D107">
         <v>120</v>
       </c>
       <c r="E107" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3168,13 +3172,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C108" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D108">
         <v>145</v>
       </c>
       <c r="E108" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
